--- a/results/Standard_deviation_%.xlsx
+++ b/results/Standard_deviation_%.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soham/Desktop/Capstone/Impact_of_Manhattan_Congestion_Surcharge_on_For-Hire_Vehicles/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5C7F81-4BF9-054A-BE31-100209BD97BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A79A3D-3F8E-474A-99C3-8C75943C941F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{4768A30B-B57F-D841-A26D-D529C64A0727}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -455,13 +455,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.25242999999999999</v>
+        <v>0.25199633999999999</v>
       </c>
       <c r="C2" s="2">
-        <v>0.33140500000000001</v>
+        <v>0.28612314</v>
       </c>
       <c r="D2" s="2">
-        <v>0.17588500000000001</v>
+        <v>0.15861500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -469,13 +469,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.35360799999999998</v>
+        <v>0.35289895999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>0.35502899999999998</v>
+        <v>0.30801687999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.34516799999999997</v>
+        <v>0.29986299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -483,13 +483,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.44713700000000001</v>
+        <v>0.44580268000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>0.62839299999999998</v>
+        <v>0.53835778000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.77705299999999999</v>
+        <v>0.66010599999999997</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -497,13 +497,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>8.7320000000000002E-3</v>
+        <v>8.7318299999999995E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>6.4000000000000003E-3</v>
+        <v>6.4572400000000004E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>3.5460000000000001E-3</v>
+        <v>3.901E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -511,13 +511,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>5.2839999999999996E-3</v>
+        <v>5.2823499999999999E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>1.9780000000000002E-3</v>
+        <v>5.1668399999999998E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.0280000000000001E-3</v>
+        <v>4.398E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -525,13 +525,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>6.4260000000000003E-3</v>
+        <v>6.4277800000000001E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>5.254E-3</v>
+        <v>5.5936800000000002E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>4.3489999999999996E-3</v>
+        <v>4.6470000000000001E-3</v>
       </c>
     </row>
   </sheetData>
